--- a/resources/actual.xlsx
+++ b/resources/actual.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D917B02-854F-450A-B6FE-3F28EE3C62DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038A6479-65FF-442A-B4AA-81349241A8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Car Data" sheetId="1" r:id="rId1"/>
-    <sheet name="viral info" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
   <si>
     <t>Angular 11</t>
   </si>
@@ -145,12 +144,6 @@
   </si>
   <si>
     <t>Peugeot 207</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>viral</t>
   </si>
 </sst>
 </file>
@@ -1204,29 +1197,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24ADC86D-241B-4B5D-B051-30DA9C7B4C92}">
-  <dimension ref="B3:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>